--- a/gen/validoutput.xlsx
+++ b/gen/validoutput.xlsx
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="C843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9853,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="C862" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -11525,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="C1014" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -13142,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="C1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -13703,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="C1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="C1213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="C1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="C1662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
@@ -19291,7 +19291,7 @@
         <v>1</v>
       </c>
       <c r="C1720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
@@ -23339,7 +23339,7 @@
         <v>1</v>
       </c>
       <c r="C2088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -25517,7 +25517,7 @@
         <v>1</v>
       </c>
       <c r="C2286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="C2339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -27002,7 +27002,7 @@
         <v>1</v>
       </c>
       <c r="C2421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27629,7 +27629,7 @@
         <v>1</v>
       </c>
       <c r="C2478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27893,7 +27893,7 @@
         <v>0</v>
       </c>
       <c r="C2502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="C2503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -28707,7 +28707,7 @@
         <v>0</v>
       </c>
       <c r="C2576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2577" spans="1:3">
@@ -36737,7 +36737,7 @@
         <v>0</v>
       </c>
       <c r="C3306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3307" spans="1:3">
@@ -37012,7 +37012,7 @@
         <v>0</v>
       </c>
       <c r="C3331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3332" spans="1:3">
@@ -37749,7 +37749,7 @@
         <v>1</v>
       </c>
       <c r="C3398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="1:3">
@@ -40598,7 +40598,7 @@
         <v>1</v>
       </c>
       <c r="C3657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3658" spans="1:3">
@@ -41313,7 +41313,7 @@
         <v>1</v>
       </c>
       <c r="C3722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3723" spans="1:3">
@@ -42655,7 +42655,7 @@
         <v>0</v>
       </c>
       <c r="C3844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3845" spans="1:3">
@@ -42974,7 +42974,7 @@
         <v>1</v>
       </c>
       <c r="C3873" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3874" spans="1:3">
@@ -43326,7 +43326,7 @@
         <v>0</v>
       </c>
       <c r="C3905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3906" spans="1:3">
@@ -44294,7 +44294,7 @@
         <v>1</v>
       </c>
       <c r="C3993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3994" spans="1:3">
@@ -44349,7 +44349,7 @@
         <v>1</v>
       </c>
       <c r="C3998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3999" spans="1:3">
@@ -44723,7 +44723,7 @@
         <v>1</v>
       </c>
       <c r="C4032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4033" spans="1:3">
@@ -44745,7 +44745,7 @@
         <v>0</v>
       </c>
       <c r="C4034" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4035" spans="1:3">
@@ -44877,7 +44877,7 @@
         <v>1</v>
       </c>
       <c r="C4046" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4047" spans="1:3">
@@ -45163,7 +45163,7 @@
         <v>0</v>
       </c>
       <c r="C4072" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4073" spans="1:3">
@@ -45174,7 +45174,7 @@
         <v>0</v>
       </c>
       <c r="C4073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4074" spans="1:3">
@@ -45284,7 +45284,7 @@
         <v>1</v>
       </c>
       <c r="C4083" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4084" spans="1:3">
@@ -45405,7 +45405,7 @@
         <v>1</v>
       </c>
       <c r="C4094" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4095" spans="1:3">
@@ -45680,7 +45680,7 @@
         <v>1</v>
       </c>
       <c r="C4119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4120" spans="1:3">
@@ -46472,7 +46472,7 @@
         <v>1</v>
       </c>
       <c r="C4191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4192" spans="1:3">
@@ -46582,7 +46582,7 @@
         <v>0</v>
       </c>
       <c r="C4201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4202" spans="1:3">
@@ -47121,7 +47121,7 @@
         <v>1</v>
       </c>
       <c r="C4250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4251" spans="1:3">
@@ -47341,7 +47341,7 @@
         <v>0</v>
       </c>
       <c r="C4270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4271" spans="1:3">
@@ -47440,7 +47440,7 @@
         <v>1</v>
       </c>
       <c r="C4279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4280" spans="1:3">
@@ -47495,7 +47495,7 @@
         <v>1</v>
       </c>
       <c r="C4284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4285" spans="1:3">
@@ -47605,7 +47605,7 @@
         <v>1</v>
       </c>
       <c r="C4294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4295" spans="1:3">
@@ -47704,7 +47704,7 @@
         <v>0</v>
       </c>
       <c r="C4303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4304" spans="1:3">
@@ -47726,7 +47726,7 @@
         <v>1</v>
       </c>
       <c r="C4305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4306" spans="1:3">
@@ -47858,7 +47858,7 @@
         <v>0</v>
       </c>
       <c r="C4317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4318" spans="1:3">
@@ -48177,7 +48177,7 @@
         <v>0</v>
       </c>
       <c r="C4346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4347" spans="1:3">
@@ -48199,7 +48199,7 @@
         <v>1</v>
       </c>
       <c r="C4348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4349" spans="1:3">
@@ -49079,7 +49079,7 @@
         <v>0</v>
       </c>
       <c r="C4428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4429" spans="1:3">
@@ -49871,7 +49871,7 @@
         <v>0</v>
       </c>
       <c r="C4500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4501" spans="1:3">
@@ -50036,7 +50036,7 @@
         <v>0</v>
       </c>
       <c r="C4515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4516" spans="1:3">
@@ -50124,7 +50124,7 @@
         <v>0</v>
       </c>
       <c r="C4523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4524" spans="1:3">
@@ -50960,7 +50960,7 @@
         <v>0</v>
       </c>
       <c r="C4599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4600" spans="1:3">
@@ -51103,7 +51103,7 @@
         <v>0</v>
       </c>
       <c r="C4612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4613" spans="1:3">
@@ -51213,7 +51213,7 @@
         <v>0</v>
       </c>
       <c r="C4622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4623" spans="1:3">
@@ -51257,7 +51257,7 @@
         <v>1</v>
       </c>
       <c r="C4626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4627" spans="1:3">
@@ -51510,7 +51510,7 @@
         <v>1</v>
       </c>
       <c r="C4649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4650" spans="1:3">
@@ -52731,7 +52731,7 @@
         <v>0</v>
       </c>
       <c r="C4760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4761" spans="1:3">
@@ -53028,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="C4787" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4788" spans="1:3">
@@ -53039,7 +53039,7 @@
         <v>0</v>
       </c>
       <c r="C4788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4789" spans="1:3">
@@ -53094,7 +53094,7 @@
         <v>0</v>
       </c>
       <c r="C4793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4794" spans="1:3">
@@ -53105,7 +53105,7 @@
         <v>0</v>
       </c>
       <c r="C4794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4795" spans="1:3">
@@ -53292,7 +53292,7 @@
         <v>0</v>
       </c>
       <c r="C4811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4812" spans="1:3">
@@ -53391,7 +53391,7 @@
         <v>0</v>
       </c>
       <c r="C4820" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4821" spans="1:3">
@@ -54227,7 +54227,7 @@
         <v>0</v>
       </c>
       <c r="C4896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4897" spans="1:3">
@@ -55305,7 +55305,7 @@
         <v>1</v>
       </c>
       <c r="C4994" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4995" spans="1:3">
@@ -55316,7 +55316,7 @@
         <v>1</v>
       </c>
       <c r="C4995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4996" spans="1:3">
@@ -55910,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="C5049" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5050" spans="1:3">
@@ -56262,7 +56262,7 @@
         <v>1</v>
       </c>
       <c r="C5081" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5082" spans="1:3">
@@ -56482,7 +56482,7 @@
         <v>0</v>
       </c>
       <c r="C5101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5102" spans="1:3">
@@ -56526,7 +56526,7 @@
         <v>1</v>
       </c>
       <c r="C5105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5106" spans="1:3">
@@ -57131,7 +57131,7 @@
         <v>1</v>
       </c>
       <c r="C5160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5161" spans="1:3">
@@ -57516,7 +57516,7 @@
         <v>1</v>
       </c>
       <c r="C5195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5196" spans="1:3">
@@ -57923,7 +57923,7 @@
         <v>0</v>
       </c>
       <c r="C5232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5233" spans="1:3">
@@ -57934,7 +57934,7 @@
         <v>0</v>
       </c>
       <c r="C5233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5234" spans="1:3">
@@ -58319,7 +58319,7 @@
         <v>1</v>
       </c>
       <c r="C5268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5269" spans="1:3">
@@ -58506,7 +58506,7 @@
         <v>1</v>
       </c>
       <c r="C5285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5286" spans="1:3">
@@ -58715,7 +58715,7 @@
         <v>1</v>
       </c>
       <c r="C5304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5305" spans="1:3">
@@ -59111,7 +59111,7 @@
         <v>0</v>
       </c>
       <c r="C5340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5341" spans="1:3">
@@ -59133,7 +59133,7 @@
         <v>1</v>
       </c>
       <c r="C5342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5343" spans="1:3">
@@ -59364,7 +59364,7 @@
         <v>1</v>
       </c>
       <c r="C5363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5364" spans="1:3">
@@ -59958,7 +59958,7 @@
         <v>0</v>
       </c>
       <c r="C5417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5418" spans="1:3">
@@ -60673,7 +60673,7 @@
         <v>1</v>
       </c>
       <c r="C5482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5483" spans="1:3">
@@ -62818,7 +62818,7 @@
         <v>1</v>
       </c>
       <c r="C5677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5678" spans="1:3">
@@ -63445,7 +63445,7 @@
         <v>0</v>
       </c>
       <c r="C5734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5735" spans="1:3">
@@ -65282,7 +65282,7 @@
         <v>0</v>
       </c>
       <c r="C5901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5902" spans="1:3">

--- a/gen/validoutput.xlsx
+++ b/gen/validoutput.xlsx
@@ -393,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5684,7 +5684,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="C1662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
@@ -21689,7 +21689,7 @@
         <v>1</v>
       </c>
       <c r="C1938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
@@ -22382,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="C2001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2002" spans="1:3">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="C2490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -27772,7 +27772,7 @@
         <v>0</v>
       </c>
       <c r="C2491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="C2493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="C2496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -27838,7 +27838,7 @@
         <v>1</v>
       </c>
       <c r="C2497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="C2500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -27882,7 +27882,7 @@
         <v>0</v>
       </c>
       <c r="C2501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="C2724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2725" spans="1:3">
@@ -31050,7 +31050,7 @@
         <v>1</v>
       </c>
       <c r="C2789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2790" spans="1:3">
@@ -35043,7 +35043,7 @@
         <v>1</v>
       </c>
       <c r="C3152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3153" spans="1:3">
@@ -35615,7 +35615,7 @@
         <v>1</v>
       </c>
       <c r="C3204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3205" spans="1:3">
@@ -36737,7 +36737,7 @@
         <v>0</v>
       </c>
       <c r="C3306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3307" spans="1:3">
@@ -37012,7 +37012,7 @@
         <v>0</v>
       </c>
       <c r="C3331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3332" spans="1:3">
@@ -43546,7 +43546,7 @@
         <v>0</v>
       </c>
       <c r="C3925" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3926" spans="1:3">
@@ -45108,7 +45108,7 @@
         <v>0</v>
       </c>
       <c r="C4067" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4068" spans="1:3">
@@ -46010,7 +46010,7 @@
         <v>0</v>
       </c>
       <c r="C4149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4150" spans="1:3">
@@ -46472,7 +46472,7 @@
         <v>1</v>
       </c>
       <c r="C4191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4192" spans="1:3">
@@ -46582,7 +46582,7 @@
         <v>0</v>
       </c>
       <c r="C4201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4202" spans="1:3">
@@ -49057,7 +49057,7 @@
         <v>0</v>
       </c>
       <c r="C4426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4427" spans="1:3">
@@ -49761,7 +49761,7 @@
         <v>1</v>
       </c>
       <c r="C4490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4491" spans="1:3">
@@ -51675,7 +51675,7 @@
         <v>0</v>
       </c>
       <c r="C4664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4665" spans="1:3">
@@ -53028,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="C4787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4788" spans="1:3">
@@ -53094,7 +53094,7 @@
         <v>0</v>
       </c>
       <c r="C4793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4794" spans="1:3">
@@ -53105,7 +53105,7 @@
         <v>0</v>
       </c>
       <c r="C4794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4795" spans="1:3">
@@ -53292,7 +53292,7 @@
         <v>0</v>
       </c>
       <c r="C4811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4812" spans="1:3">
@@ -53391,7 +53391,7 @@
         <v>0</v>
       </c>
       <c r="C4820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4821" spans="1:3">
@@ -54051,7 +54051,7 @@
         <v>1</v>
       </c>
       <c r="C4880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4881" spans="1:3">
@@ -54216,7 +54216,7 @@
         <v>0</v>
       </c>
       <c r="C4895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4896" spans="1:3">
@@ -59111,7 +59111,7 @@
         <v>0</v>
       </c>
       <c r="C5340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5341" spans="1:3">
@@ -59958,7 +59958,7 @@
         <v>0</v>
       </c>
       <c r="C5417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5418" spans="1:3">
@@ -62818,7 +62818,7 @@
         <v>1</v>
       </c>
       <c r="C5677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5678" spans="1:3">
@@ -65282,7 +65282,7 @@
         <v>0</v>
       </c>
       <c r="C5901" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5902" spans="1:3">
@@ -65425,7 +65425,7 @@
         <v>0</v>
       </c>
       <c r="C5914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5915" spans="1:3">
